--- a/LAB09/Ejercicio5 lab9 /TABLA EJERCICIO 5.xlsx
+++ b/LAB09/Ejercicio5 lab9 /TABLA EJERCICIO 5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josuesalazar/Desktop/Cuarto Semestre /Electronica /Lab 3/Laboratorios-/LAB09/Ejercicio5 lab9 /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B3BFEE-B735-6A4F-837B-232E6B3649D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C963E4-B86E-F74A-83D5-A646AFAB25FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="460" windowWidth="27240" windowHeight="16040" xr2:uid="{466854FE-E599-0743-9C0D-D834B0A37821}"/>
   </bookViews>
@@ -465,7 +465,7 @@
   <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
